--- a/data/trans_orig/P22$concerEmp-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22$concerEmp-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14266</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7770</v>
+        <v>8257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23932</v>
+        <v>23760</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01386593205894233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007551801894521871</v>
+        <v>0.008024749434286176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02326013615204078</v>
+        <v>0.02309298197988089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5795</v>
+        <v>6284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001342520905243745</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004409139738681065</v>
+        <v>0.004781750875968267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -786,19 +786,19 @@
         <v>16031</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10242</v>
+        <v>9316</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26294</v>
+        <v>25743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006841576542546657</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004371021762717876</v>
+        <v>0.003975846898023126</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01122154351954723</v>
+        <v>0.01098669276886818</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4055</v>
+        <v>3628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17469</v>
+        <v>16807</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008223828786248642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003940903948944007</v>
+        <v>0.003525817879239598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01697823797554909</v>
+        <v>0.01633480577468295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -836,19 +836,19 @@
         <v>22340</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14921</v>
+        <v>13955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35048</v>
+        <v>34318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01699800622458316</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01135303403898547</v>
+        <v>0.01061774370986891</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02666718887931732</v>
+        <v>0.02611206657539695</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -857,19 +857,19 @@
         <v>30801</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21445</v>
+        <v>20258</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44743</v>
+        <v>41471</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0131452468355632</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009152382437554632</v>
+        <v>0.008645509248309894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01909508022309979</v>
+        <v>0.01769882538338374</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>15548</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9612</v>
+        <v>8728</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25285</v>
+        <v>25086</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01511184180049167</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00934209237320994</v>
+        <v>0.008482554211006009</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02457523237621888</v>
+        <v>0.02438139850136399</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -907,19 +907,19 @@
         <v>28664</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19281</v>
+        <v>19137</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39312</v>
+        <v>41196</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02180968565065264</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01467037194098129</v>
+        <v>0.01456131322873332</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02991175058212662</v>
+        <v>0.03134524796899428</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -928,19 +928,19 @@
         <v>44212</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32711</v>
+        <v>32247</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>58954</v>
+        <v>59771</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0188686486176934</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01396024919184345</v>
+        <v>0.0137624813420216</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02516036249022162</v>
+        <v>0.02550892861889636</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>15612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9407</v>
+        <v>8161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26347</v>
+        <v>24511</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01517411464735067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009143331063290986</v>
+        <v>0.007931956890389944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02560743304268822</v>
+        <v>0.02382307638722822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -978,19 +978,19 @@
         <v>15546</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8843</v>
+        <v>9017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24437</v>
+        <v>25132</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01182840212935207</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006728849443118803</v>
+        <v>0.006861092368847665</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01859377068395483</v>
+        <v>0.01912249078248027</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -999,19 +999,19 @@
         <v>31158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21508</v>
+        <v>20672</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44165</v>
+        <v>43642</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01329751138857027</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009178972397446101</v>
+        <v>0.008822289845072617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01884845168757353</v>
+        <v>0.01862559227807529</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>4337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13476</v>
+        <v>13106</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004215655250947422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001010280913940474</v>
+        <v>0.001012955750950524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01309759039554046</v>
+        <v>0.01273857667215622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5140</v>
+        <v>4666</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.000708322491774419</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.003910966246549082</v>
+        <v>0.003550042402638645</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1073,16 +1073,16 @@
         <v>1653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12865</v>
+        <v>13886</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00224839953184919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0007055771946291526</v>
+        <v>0.000705382961896118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.00549048465559513</v>
+        <v>0.005926204395703807</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9810</v>
+        <v>8913</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001934043410725989</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.007463976574380038</v>
+        <v>0.006781890136181611</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8660</v>
+        <v>10046</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001084800964717155</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003695696652426544</v>
+        <v>0.004287480344203808</v>
       </c>
     </row>
     <row r="10">
@@ -1162,19 +1162,19 @@
         <v>1008649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>996630</v>
+        <v>998839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1016643</v>
+        <v>1017153</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9803368109614733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9686551581194828</v>
+        <v>0.9708019161388736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9881067647151214</v>
+        <v>0.9886018729077827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1250</v>
@@ -1183,19 +1183,19 @@
         <v>1272659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1257918</v>
+        <v>1257993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1284329</v>
+        <v>1284672</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9683429941142934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.957126453850254</v>
+        <v>0.9571834718908883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9772223744452133</v>
+        <v>0.977482925201637</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2265</v>
@@ -1204,19 +1204,19 @@
         <v>2281308</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2265292</v>
+        <v>2263956</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2296349</v>
+        <v>2294389</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9736095038005769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9667740020016881</v>
+        <v>0.9662041453238766</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9800285044731613</v>
+        <v>0.9791920163159679</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>42581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31233</v>
+        <v>31737</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58426</v>
+        <v>57790</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02519792882711863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01848274559041515</v>
+        <v>0.01878103680843093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03457473245521424</v>
+        <v>0.03419834584365526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1258,19 +1258,19 @@
         <v>6477</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2338</v>
+        <v>2989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13112</v>
+        <v>13676</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004082888574243578</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001473445614844687</v>
+        <v>0.001883937609453721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008264755253122475</v>
+        <v>0.008620196475645622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -1279,19 +1279,19 @@
         <v>49058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35631</v>
+        <v>36300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63517</v>
+        <v>65081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01497345286422093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01087528276815248</v>
+        <v>0.01107934183556094</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01938643071589823</v>
+        <v>0.01986386455392434</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>29556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20269</v>
+        <v>19240</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41991</v>
+        <v>41739</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01749050018283992</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01199430831431154</v>
+        <v>0.01138580038839366</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02484919396975832</v>
+        <v>0.02470012378718371</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -1329,19 +1329,19 @@
         <v>61832</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46857</v>
+        <v>47265</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79622</v>
+        <v>79547</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03897388885356998</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02953466179376998</v>
+        <v>0.02979213546597763</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05018714776960004</v>
+        <v>0.05014010701989407</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>89</v>
@@ -1350,19 +1350,19 @@
         <v>91388</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>72992</v>
+        <v>73245</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110714</v>
+        <v>112522</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02789334045379604</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0222784685454813</v>
+        <v>0.02235567840893086</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03379190017667495</v>
+        <v>0.03434369723444769</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>46553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33708</v>
+        <v>34178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61509</v>
+        <v>63191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02754886902746531</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01994713793890771</v>
+        <v>0.0202253560342719</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03639901122962092</v>
+        <v>0.03739464706115235</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1400,19 +1400,19 @@
         <v>51574</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39632</v>
+        <v>38530</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66800</v>
+        <v>68808</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0325081751800441</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02498096201642141</v>
+        <v>0.02428632021325172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04210548300376389</v>
+        <v>0.0433714253850109</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -1421,19 +1421,19 @@
         <v>98127</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79054</v>
+        <v>79065</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118300</v>
+        <v>117996</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02995029975847176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02412870433871318</v>
+        <v>0.02413222486817685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0361073070736932</v>
+        <v>0.03601462064117258</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>33696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23240</v>
+        <v>23810</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48708</v>
+        <v>50278</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01994037378477405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01375250160994376</v>
+        <v>0.01409022357802642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02882382718076719</v>
+        <v>0.02975300539800356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1471,19 +1471,19 @@
         <v>29509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20537</v>
+        <v>19380</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41618</v>
+        <v>40971</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01860041374651404</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01294493112387072</v>
+        <v>0.01221572548506017</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02623287816547921</v>
+        <v>0.02582482335427248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1492,19 +1492,19 @@
         <v>63206</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49365</v>
+        <v>48996</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>82521</v>
+        <v>84087</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01929152874169783</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01506712146123819</v>
+        <v>0.01495437574188527</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.025186808873283</v>
+        <v>0.0256648451608218</v>
       </c>
     </row>
     <row r="15">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9169</v>
+        <v>9861</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001042794167866869</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.005426093186142782</v>
+        <v>0.005835468098576349</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5869</v>
+        <v>5617</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0006680974223505913</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.003699187837931759</v>
+        <v>0.003540356264830123</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11375</v>
+        <v>9882</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0008613558271378933</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003471747735661399</v>
+        <v>0.003016266778229065</v>
       </c>
     </row>
     <row r="16">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9614</v>
+        <v>8003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0009424474758294994</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005689216437404418</v>
+        <v>0.004735767059907723</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1613,19 +1613,19 @@
         <v>3272</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10339</v>
+        <v>9978</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002062656343348535</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0004673451657222177</v>
+        <v>0.0004675140014963998</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006517121935884385</v>
+        <v>0.006289234024552021</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1634,19 +1634,19 @@
         <v>4865</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1485</v>
+        <v>1586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11763</v>
+        <v>12658</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001484883033716428</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0004531328071256228</v>
+        <v>0.0004840561129297246</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.003590385701116912</v>
+        <v>0.003863550000990453</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>1638349</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1622417</v>
+        <v>1620768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1652727</v>
+        <v>1650630</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9695251154151494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9600971604655217</v>
+        <v>0.9591212063965794</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9780337370123301</v>
+        <v>0.9767923527818256</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1494</v>
@@ -1684,19 +1684,19 @@
         <v>1523208</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1504689</v>
+        <v>1505528</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1537761</v>
+        <v>1539204</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9601101402825336</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9484370315729629</v>
+        <v>0.9489657464488789</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9692830767250937</v>
+        <v>0.9701926230954373</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3091</v>
@@ -1705,19 +1705,19 @@
         <v>3161557</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3138406</v>
+        <v>3140074</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3180929</v>
+        <v>3183412</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9649661287505796</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9579000539303797</v>
+        <v>0.9584089955675281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9708787132051275</v>
+        <v>0.9716365708980058</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>16488</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9726</v>
+        <v>9690</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26664</v>
+        <v>26813</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02990097467205971</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01763790336401703</v>
+        <v>0.01757335282619658</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04835700930755612</v>
+        <v>0.0486261288397966</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -1759,19 +1759,19 @@
         <v>9977</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4983</v>
+        <v>4862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17128</v>
+        <v>17761</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02094130893064581</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01045985897662163</v>
+        <v>0.01020491189540547</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03595125677524138</v>
+        <v>0.03728084820429069</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -1780,19 +1780,19 @@
         <v>26464</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18584</v>
+        <v>17401</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>39362</v>
+        <v>38176</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02574801910015265</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01808065941784717</v>
+        <v>0.01692966632296635</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03829630360408074</v>
+        <v>0.03714298816652389</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>54065</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41393</v>
+        <v>41433</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69482</v>
+        <v>69776</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.098048578403195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07506745395836152</v>
+        <v>0.07514121799106206</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1260088750783116</v>
+        <v>0.1265421590882341</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1830,19 +1830,19 @@
         <v>48606</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36050</v>
+        <v>36417</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63162</v>
+        <v>64098</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1020261566457158</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07567079335429759</v>
+        <v>0.07644007845790089</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1325778918760112</v>
+        <v>0.13454306453617</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -1851,19 +1851,19 @@
         <v>102671</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85682</v>
+        <v>85098</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123802</v>
+        <v>122394</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09989225273231864</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08336258977745449</v>
+        <v>0.08279439659382273</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1204508561994045</v>
+        <v>0.1190814555568393</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>54991</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42158</v>
+        <v>42642</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71913</v>
+        <v>70051</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09972830960876508</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07645515991536243</v>
+        <v>0.07733331039959464</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1304163976126692</v>
+        <v>0.1270410889250855</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -1901,19 +1901,19 @@
         <v>33234</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23683</v>
+        <v>23147</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45970</v>
+        <v>47446</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0697580926904847</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04971078824343114</v>
+        <v>0.04858638979861504</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09649151335043217</v>
+        <v>0.09959117793442758</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>86</v>
@@ -1922,19 +1922,19 @@
         <v>88225</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70949</v>
+        <v>71614</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>106261</v>
+        <v>107685</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08583661063982628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06902896845908731</v>
+        <v>0.06967550298521824</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1033845617259642</v>
+        <v>0.1047705809690887</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>21076</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13587</v>
+        <v>13821</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32227</v>
+        <v>32395</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03822240329859577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02464089429412439</v>
+        <v>0.0250643107344901</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05844408862005994</v>
+        <v>0.05875030877902019</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -1972,19 +1972,19 @@
         <v>24903</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15972</v>
+        <v>17004</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36085</v>
+        <v>36619</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05227165658080653</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03352578893004628</v>
+        <v>0.0356918232345163</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07574385109167976</v>
+        <v>0.07686485068373157</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -1993,19 +1993,19 @@
         <v>45979</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33691</v>
+        <v>33447</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60577</v>
+        <v>59703</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04473446818844994</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03277866450935003</v>
+        <v>0.03254126248865335</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05893698660152303</v>
+        <v>0.0580874663889346</v>
       </c>
     </row>
     <row r="22">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7411</v>
+        <v>9203</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002641711910974221</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01344092255472792</v>
+        <v>0.01668958828693706</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9323</v>
+        <v>8867</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005379239339678388</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01956990021738794</v>
+        <v>0.01861126495209602</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2111,19 +2111,19 @@
         <v>4019</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11303</v>
+        <v>11420</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003910601858032815</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0009522561373965106</v>
+        <v>0.0009518413238004832</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01099681208019623</v>
+        <v>0.01111127286798382</v>
       </c>
     </row>
     <row r="24">
@@ -2140,19 +2140,19 @@
         <v>483220</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>465584</v>
+        <v>465182</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>497604</v>
+        <v>497158</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8763392919362677</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8443546162317801</v>
+        <v>0.8436265346244129</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.902424136655365</v>
+        <v>0.901616121186571</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>406</v>
@@ -2161,19 +2161,19 @@
         <v>427562</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>413571</v>
+        <v>412342</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>439155</v>
+        <v>439935</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8974631746420483</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8680952876348553</v>
+        <v>0.8655150388855124</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.921797131983988</v>
+        <v>0.9234328937206318</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>867</v>
@@ -2182,19 +2182,19 @@
         <v>910783</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>890435</v>
+        <v>889543</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>930239</v>
+        <v>929736</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8861305664006472</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8663338500109687</v>
+        <v>0.8654661273238289</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9050598480323938</v>
+        <v>0.9045704539646366</v>
       </c>
     </row>
     <row r="25">
@@ -2215,19 +2215,19 @@
         <v>73335</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57133</v>
+        <v>57516</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92472</v>
+        <v>91375</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02242557633293724</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01747109649759849</v>
+        <v>0.01758836350316591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02827783261126601</v>
+        <v>0.02794237233392633</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2236,19 +2236,19 @@
         <v>18219</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11097</v>
+        <v>11573</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29211</v>
+        <v>28266</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005394631275076582</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003285782435566245</v>
+        <v>0.003426860698334333</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008649676530624028</v>
+        <v>0.008369756652897868</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -2257,19 +2257,19 @@
         <v>91553</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>74125</v>
+        <v>75052</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>113821</v>
+        <v>112318</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01377298784184549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01115108580643703</v>
+        <v>0.01129066042549608</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01712282663454348</v>
+        <v>0.0168968003198793</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>92082</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>73663</v>
+        <v>73756</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>110842</v>
+        <v>110124</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02815858390342363</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02252599278577135</v>
+        <v>0.02255433086277019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03389527467715938</v>
+        <v>0.03367560297865173</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -2307,19 +2307,19 @@
         <v>132778</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110683</v>
+        <v>110335</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>159296</v>
+        <v>156965</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03931639297741841</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03277391552490743</v>
+        <v>0.0326707690948568</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04716834964403122</v>
+        <v>0.04647818735689761</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -2328,19 +2328,19 @@
         <v>224860</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>196686</v>
+        <v>197032</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>254656</v>
+        <v>256561</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03382731984564231</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02958888213217725</v>
+        <v>0.02964086655360973</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0383096186993904</v>
+        <v>0.03859628363265374</v>
       </c>
     </row>
     <row r="27">
@@ -2357,19 +2357,19 @@
         <v>117093</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>95378</v>
+        <v>95470</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>141562</v>
+        <v>139689</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03580666602552131</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02916644090294719</v>
+        <v>0.02919437187652395</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04328936756473852</v>
+        <v>0.04271643767966293</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>110</v>
@@ -2378,19 +2378,19 @@
         <v>113471</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>94569</v>
+        <v>95557</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>133461</v>
+        <v>136515</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03359951534486033</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02800247670926981</v>
+        <v>0.028294987091663</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03951868277524719</v>
+        <v>0.04042302780574287</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>224</v>
@@ -2399,19 +2399,19 @@
         <v>230564</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>200897</v>
+        <v>199487</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>260559</v>
+        <v>261743</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03468532093793452</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03022228843241527</v>
+        <v>0.03001014270192888</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03919773880154181</v>
+        <v>0.03937578291486978</v>
       </c>
     </row>
     <row r="28">
@@ -2428,19 +2428,19 @@
         <v>70385</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>54950</v>
+        <v>54768</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88838</v>
+        <v>89670</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02152347307863234</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01680354286804673</v>
+        <v>0.01674805776051106</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02716655359054718</v>
+        <v>0.02742080444328979</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>68</v>
@@ -2449,19 +2449,19 @@
         <v>69958</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>54050</v>
+        <v>55436</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>88976</v>
+        <v>89666</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02071495137315627</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01600452319313419</v>
+        <v>0.01641497383582756</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.026346246769976</v>
+        <v>0.02655073934977242</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>136</v>
@@ -2470,19 +2470,19 @@
         <v>140343</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>119076</v>
+        <v>117369</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>166342</v>
+        <v>165217</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02111270282602259</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01791338027321584</v>
+        <v>0.01765666482636548</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02502403741671308</v>
+        <v>0.0248546814804536</v>
       </c>
     </row>
     <row r="29">
@@ -2499,19 +2499,19 @@
         <v>6100</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.001865233617310533</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0005895041009453678</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -2541,19 +2541,19 @@
         <v>8090</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001217097974012659</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
     </row>
     <row r="30">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9276</v>
+        <v>9391</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0009324548201874439</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.002836642857964829</v>
+        <v>0.002871751454890532</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2591,19 +2591,19 @@
         <v>8377</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3566</v>
+        <v>3742</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17300</v>
+        <v>18312</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002480469896367444</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001055812239075472</v>
+        <v>0.001108077022181625</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.005122530798283654</v>
+        <v>0.005422269572567275</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2612,19 +2612,19 @@
         <v>11426</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>5133</v>
+        <v>5560</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>20960</v>
+        <v>21838</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001718925411612986</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0007721247178793251</v>
+        <v>0.0008364011340252218</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.003153119756913961</v>
+        <v>0.003285227429053973</v>
       </c>
     </row>
     <row r="31">
@@ -2641,19 +2641,19 @@
         <v>3130219</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3104614</v>
+        <v>3107448</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3152724</v>
+        <v>3154628</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9572138594679592</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9493839119671962</v>
+        <v>0.9502506080233234</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9640961156346951</v>
+        <v>0.9646783332474834</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3150</v>
@@ -2662,19 +2662,19 @@
         <v>3223430</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3197873</v>
+        <v>3198342</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3246066</v>
+        <v>3246625</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9544765500765502</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9469089977823972</v>
+        <v>0.9470478825646441</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.961179340605036</v>
+        <v>0.9613449595276896</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6223</v>
@@ -2683,19 +2683,19 @@
         <v>6353647</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6318276</v>
+        <v>6317790</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6387240</v>
+        <v>6388726</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9558231667227125</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9505020273363908</v>
+        <v>0.9504289178138369</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9608768266558636</v>
+        <v>0.9611002982683936</v>
       </c>
     </row>
     <row r="32">
@@ -2955,19 +2955,19 @@
         <v>2866</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8181</v>
+        <v>8038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002940762723698478</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0008189553747882918</v>
+        <v>0.0008218710307742319</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008393807288683988</v>
+        <v>0.008247094617240262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6604</v>
+        <v>4877</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0007369947655203354</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004936468331592038</v>
+        <v>0.003645893646263258</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2997,19 +2997,19 @@
         <v>3852</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>987</v>
+        <v>1027</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9390</v>
+        <v>8777</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001665835059234307</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0004270264043989999</v>
+        <v>0.0004441462281781834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00406066551162928</v>
+        <v>0.003795755841526223</v>
       </c>
     </row>
     <row r="5">
@@ -3026,19 +3026,19 @@
         <v>7933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3803</v>
+        <v>3865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14989</v>
+        <v>14508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008139542809692453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003901762283161883</v>
+        <v>0.003965833150365692</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01537892736819477</v>
+        <v>0.01488502075286475</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -3047,19 +3047,19 @@
         <v>17146</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9996</v>
+        <v>10020</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28188</v>
+        <v>28856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01281627826055546</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007472044769483363</v>
+        <v>0.007489988593457209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02107017662245423</v>
+        <v>0.02157005889389641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -3068,19 +3068,19 @@
         <v>25079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15571</v>
+        <v>16337</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36329</v>
+        <v>37659</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0108451359206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006733755490786112</v>
+        <v>0.007065036085658855</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01571008206179277</v>
+        <v>0.01628539849873136</v>
       </c>
     </row>
     <row r="6">
@@ -3097,19 +3097,19 @@
         <v>5849</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2799</v>
+        <v>2155</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13182</v>
+        <v>12023</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00600079613273265</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002872057593281995</v>
+        <v>0.002211312614445935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01352458057403306</v>
+        <v>0.01233630803649322</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -3118,19 +3118,19 @@
         <v>16486</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9328</v>
+        <v>9631</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26929</v>
+        <v>27279</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01232319170876691</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006973010471926491</v>
+        <v>0.007198777057623925</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02012972462350458</v>
+        <v>0.02039079238831997</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -3139,19 +3139,19 @@
         <v>22335</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14264</v>
+        <v>14723</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34743</v>
+        <v>35568</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009658439395790013</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006168538088829526</v>
+        <v>0.006367004347857197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01502437532557986</v>
+        <v>0.01538095069560222</v>
       </c>
     </row>
     <row r="7">
@@ -3168,19 +3168,19 @@
         <v>4938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12882</v>
+        <v>13512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005066094282252852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001063363744350076</v>
+        <v>0.001059916472808874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01321752351656641</v>
+        <v>0.01386340232697555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -3189,19 +3189,19 @@
         <v>9121</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4101</v>
+        <v>4143</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16932</v>
+        <v>18286</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006817795361421664</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003065699505941692</v>
+        <v>0.003096692987996602</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01265682597552307</v>
+        <v>0.01366889720249932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -3210,19 +3210,19 @@
         <v>14058</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7301</v>
+        <v>7100</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25091</v>
+        <v>24191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006079491431175158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003157289029298796</v>
+        <v>0.003070244384962932</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0108505766374008</v>
+        <v>0.01046138548681176</v>
       </c>
     </row>
     <row r="8">
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6627</v>
+        <v>6353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001301168292321042</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006799233365675893</v>
+        <v>0.006517823879848151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6348</v>
+        <v>7016</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0005484141532804185</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.002745295683415188</v>
+        <v>0.003034116811888872</v>
       </c>
     </row>
     <row r="9">
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4140</v>
+        <v>3727</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0008432117699734516</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004247588217786619</v>
+        <v>0.003823548454750956</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -3323,19 +3323,19 @@
         <v>4194</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11345</v>
+        <v>10420</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003135233656031876</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0007865836046337895</v>
+        <v>0.0007813307913357508</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008480249492114513</v>
+        <v>0.007788831439763329</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -3344,19 +3344,19 @@
         <v>5016</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1857</v>
+        <v>1871</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11132</v>
+        <v>11625</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002169196249986033</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008031404412514045</v>
+        <v>0.000809310331420025</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00481415726720546</v>
+        <v>0.005026961921166789</v>
       </c>
     </row>
     <row r="10">
@@ -3373,19 +3373,19 @@
         <v>959559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>949131</v>
+        <v>949983</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>965878</v>
+        <v>966505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9845230545463187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9738242621393574</v>
+        <v>0.9746979755015139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9910073567917841</v>
+        <v>0.9916497886774596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1229</v>
@@ -3394,19 +3394,19 @@
         <v>1317777</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1305845</v>
+        <v>1306287</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1325708</v>
+        <v>1325876</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9850348771693342</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9761157261959668</v>
+        <v>0.9764463756422349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9909634808708798</v>
+        <v>0.991088904034091</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2123</v>
@@ -3415,19 +3415,19 @@
         <v>2277335</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2262628</v>
+        <v>2260352</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2288301</v>
+        <v>2287514</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9848191550586071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9784591208602905</v>
+        <v>0.9774750879734346</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9895611267206609</v>
+        <v>0.9892208534811059</v>
       </c>
     </row>
     <row r="11">
@@ -3448,19 +3448,19 @@
         <v>27994</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18427</v>
+        <v>19339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40765</v>
+        <v>41877</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01426089284254081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009387323063097322</v>
+        <v>0.009851912569416281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02076668544115038</v>
+        <v>0.02133349759693696</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3469,19 +3469,19 @@
         <v>3956</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>993</v>
+        <v>1031</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8967</v>
+        <v>9957</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002250398228061021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0005646651084528509</v>
+        <v>0.0005864044331088771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005101247186901734</v>
+        <v>0.005664688438755242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -3490,19 +3490,19 @@
         <v>31950</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21679</v>
+        <v>21770</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45128</v>
+        <v>46316</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008586790520406761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005826520379803598</v>
+        <v>0.00585094676764895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01212856755461707</v>
+        <v>0.01244803365938618</v>
       </c>
     </row>
     <row r="12">
@@ -3519,19 +3519,19 @@
         <v>56614</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42779</v>
+        <v>42572</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75031</v>
+        <v>75771</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02884098603297158</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02179283183027839</v>
+        <v>0.02168749991179633</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03822288411616314</v>
+        <v>0.03859996165208924</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -3540,19 +3540,19 @@
         <v>66659</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51002</v>
+        <v>50706</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>85078</v>
+        <v>85754</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03792181764879089</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02901481763817624</v>
+        <v>0.02884605036561773</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04840001326675728</v>
+        <v>0.04878468785874454</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>110</v>
@@ -3561,19 +3561,19 @@
         <v>123273</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>100922</v>
+        <v>101027</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>148712</v>
+        <v>148910</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0331310314817335</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0271238899377815</v>
+        <v>0.0271521654991669</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03996785056973661</v>
+        <v>0.04002126802069101</v>
       </c>
     </row>
     <row r="13">
@@ -3590,19 +3590,19 @@
         <v>47008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34559</v>
+        <v>34253</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64173</v>
+        <v>64074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02394742530327338</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01760562197263819</v>
+        <v>0.0174493234110356</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03269153465862609</v>
+        <v>0.03264102922003377</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -3611,19 +3611,19 @@
         <v>33863</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22947</v>
+        <v>23487</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47631</v>
+        <v>47558</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01926453266490245</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01305456649466996</v>
+        <v>0.01336173624752152</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02709696615334434</v>
+        <v>0.02705508902774403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -3632,19 +3632,19 @@
         <v>80871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62748</v>
+        <v>63263</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100840</v>
+        <v>101128</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02173509243551198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01686414141963586</v>
+        <v>0.01700250838318855</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02710183394994719</v>
+        <v>0.02717928499981595</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>48006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35269</v>
+        <v>33773</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64624</v>
+        <v>65637</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02445548045974144</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01796734294377501</v>
+        <v>0.01720497523088256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03292166612168449</v>
+        <v>0.03343770560357159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -3682,19 +3682,19 @@
         <v>28943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18200</v>
+        <v>18135</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42668</v>
+        <v>41038</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01646529552133928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01035396605595345</v>
+        <v>0.01031663545538177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02427333367327697</v>
+        <v>0.02334621735188127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -3703,19 +3703,19 @@
         <v>76948</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61267</v>
+        <v>59507</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>96924</v>
+        <v>98381</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02068068779977804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01646605883531412</v>
+        <v>0.0159932716507565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02604942760966178</v>
+        <v>0.026441049518416</v>
       </c>
     </row>
     <row r="15">
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8173</v>
+        <v>9482</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0006281267026636664</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.004163727407460431</v>
+        <v>0.004830557356048486</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5990</v>
+        <v>7249</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0006801597918626367</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.00340771315512671</v>
+        <v>0.00412365564169004</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8481</v>
+        <v>7773</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0006527086271995423</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.002279476509507527</v>
+        <v>0.002089089576173172</v>
       </c>
     </row>
     <row r="16">
@@ -3816,19 +3816,19 @@
         <v>4324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11881</v>
+        <v>11332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002459917113010218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0006084424328587817</v>
+        <v>0.0006059065784712211</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006759023432041579</v>
+        <v>0.006446773342985963</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3837,19 +3837,19 @@
         <v>4324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10618</v>
+        <v>10545</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001162135436650634</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0002842690715178673</v>
+        <v>0.0002746240039692873</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00285362347878381</v>
+        <v>0.002834153487332448</v>
       </c>
     </row>
     <row r="17">
@@ -3866,19 +3866,19 @@
         <v>1882146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1859017</v>
+        <v>1860642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1899553</v>
+        <v>1899700</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9588228505023697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9470399504688953</v>
+        <v>0.9478678452433901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9676901492817385</v>
+        <v>0.9677650475755788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1581</v>
@@ -3887,19 +3887,19 @@
         <v>1693868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1674413</v>
+        <v>1676893</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1709268</v>
+        <v>1709319</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9636279216097883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9525599351165795</v>
+        <v>0.953970807376184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9723885549712584</v>
+        <v>0.9724179492501627</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3367</v>
@@ -3908,19 +3908,19 @@
         <v>3576014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3548712</v>
+        <v>3546585</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3601210</v>
+        <v>3598985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9610929039850759</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9537552238373483</v>
+        <v>0.9531834360276633</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9678645979541983</v>
+        <v>0.9672664927320135</v>
       </c>
     </row>
     <row r="18">
@@ -3941,19 +3941,19 @@
         <v>7633</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3077</v>
+        <v>2949</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17779</v>
+        <v>16629</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01586219469908271</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006395424428906066</v>
+        <v>0.006129352371522439</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03694934944297144</v>
+        <v>0.03455921532895714</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -3962,19 +3962,19 @@
         <v>8135</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3852</v>
+        <v>3263</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>15048</v>
+        <v>14656</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01773668551408286</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008397833095508199</v>
+        <v>0.007115374788063017</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03280963791295417</v>
+        <v>0.03195635853641616</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -3983,19 +3983,19 @@
         <v>15767</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9183</v>
+        <v>8518</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26379</v>
+        <v>26811</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01677695135330625</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009771220712726852</v>
+        <v>0.0090639513578418</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02806849770335005</v>
+        <v>0.02852796736065041</v>
       </c>
     </row>
     <row r="19">
@@ -4012,19 +4012,19 @@
         <v>47627</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34682</v>
+        <v>34877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63931</v>
+        <v>64602</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0989792899831111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07207627428205796</v>
+        <v>0.07248159486152385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1328628050135963</v>
+        <v>0.1342563975126289</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -4033,19 +4033,19 @@
         <v>34965</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24554</v>
+        <v>25565</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49081</v>
+        <v>48891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07623774384427442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05353809728178651</v>
+        <v>0.05574111065897382</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1070167456055119</v>
+        <v>0.1066023624355145</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -4054,19 +4054,19 @@
         <v>82592</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66591</v>
+        <v>64929</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>104896</v>
+        <v>102752</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08788135315068614</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07085603959012507</v>
+        <v>0.0690870456513786</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1116137045866319</v>
+        <v>0.1093327298529471</v>
       </c>
     </row>
     <row r="20">
@@ -4083,19 +4083,19 @@
         <v>37068</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25783</v>
+        <v>26067</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51173</v>
+        <v>51816</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07703595016830857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05358238080070019</v>
+        <v>0.0541732436983175</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.106349596490348</v>
+        <v>0.1076840205482727</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -4104,19 +4104,19 @@
         <v>23829</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14787</v>
+        <v>14909</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35516</v>
+        <v>36970</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05195624982185922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03224088872849763</v>
+        <v>0.03250737988602038</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07743863962754356</v>
+        <v>0.08060961151175043</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -4125,19 +4125,19 @@
         <v>60897</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>45356</v>
+        <v>45406</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78939</v>
+        <v>78458</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06479698767552884</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04826103513149079</v>
+        <v>0.04831431181804786</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08399404122250548</v>
+        <v>0.08348278792359777</v>
       </c>
     </row>
     <row r="21">
@@ -4154,19 +4154,19 @@
         <v>23208</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14464</v>
+        <v>13528</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>36585</v>
+        <v>36159</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04823056079812577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0300597842673645</v>
+        <v>0.02811501603576685</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07603147662909221</v>
+        <v>0.07514586409816913</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -4175,19 +4175,19 @@
         <v>28869</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19235</v>
+        <v>19499</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>42593</v>
+        <v>42291</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06294662158913561</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04193949019746938</v>
+        <v>0.04251485369231284</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0928693119521697</v>
+        <v>0.09221208229108686</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -4196,19 +4196,19 @@
         <v>52077</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36879</v>
+        <v>38059</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>70230</v>
+        <v>70100</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05541203878927468</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03924111715346327</v>
+        <v>0.04049684020224045</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07472813710097116</v>
+        <v>0.07458963676936405</v>
       </c>
     </row>
     <row r="22">
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6517</v>
+        <v>8049</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002515960660560466</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01354356594964137</v>
+        <v>0.0167270115751546</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6047</v>
+        <v>6068</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0012881649639397</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006434367526110331</v>
+        <v>0.006457060498601634</v>
       </c>
     </row>
     <row r="23">
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10317</v>
+        <v>10060</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006243621621260605</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0224955585276153</v>
+        <v>0.02193555196496865</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11116</v>
+        <v>10022</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003046904460026196</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01182766823305346</v>
+        <v>0.01066428757968814</v>
       </c>
     </row>
     <row r="24">
@@ -4351,19 +4351,19 @@
         <v>414394</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>395968</v>
+        <v>394828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>429957</v>
+        <v>430019</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8612013580984411</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.822909065673791</v>
+        <v>0.820538802853135</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8935446854218042</v>
+        <v>0.8936740258353</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>374</v>
@@ -4372,19 +4372,19 @@
         <v>412724</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>397783</v>
+        <v>397122</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>425165</v>
+        <v>426075</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8999038638730652</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8673269179364238</v>
+        <v>0.8658850972407814</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.927030881443896</v>
+        <v>0.9290140353791485</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>757</v>
@@ -4393,19 +4393,19 @@
         <v>827118</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>802470</v>
+        <v>805941</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>848322</v>
+        <v>848545</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.880088286969554</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.853861378082464</v>
+        <v>0.8575549724745065</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9026496151287924</v>
+        <v>0.9028871362515376</v>
       </c>
     </row>
     <row r="25">
@@ -4426,19 +4426,19 @@
         <v>38493</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26307</v>
+        <v>25844</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54343</v>
+        <v>53948</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01125908889164271</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007694668728758205</v>
+        <v>0.007559473650597168</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01589547047125199</v>
+        <v>0.01577984129006947</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4447,19 +4447,19 @@
         <v>13076</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7215</v>
+        <v>7204</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21303</v>
+        <v>21612</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003679080790696937</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002030054347367498</v>
+        <v>0.002026911568602132</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.00599379727054984</v>
+        <v>0.006080704069200468</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -4468,19 +4468,19 @@
         <v>51569</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38554</v>
+        <v>39750</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68160</v>
+        <v>67821</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007395475629771707</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005529007433976862</v>
+        <v>0.005700555149103047</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00977482503859638</v>
+        <v>0.009726196129145494</v>
       </c>
     </row>
     <row r="26">
@@ -4497,19 +4497,19 @@
         <v>112174</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91671</v>
+        <v>90847</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>137150</v>
+        <v>137809</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03281101375089616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02681376772306426</v>
+        <v>0.02657270097284883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04011646172050316</v>
+        <v>0.04030927029198291</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>107</v>
@@ -4518,19 +4518,19 @@
         <v>118770</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>98286</v>
+        <v>99256</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>142121</v>
+        <v>144253</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03341641768472538</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02765315262812514</v>
+        <v>0.02792629709265541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03998644432731435</v>
+        <v>0.04058621167312559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>206</v>
@@ -4539,19 +4539,19 @@
         <v>230944</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>199094</v>
+        <v>200194</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>265368</v>
+        <v>264339</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03311959477566308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02855196929069019</v>
+        <v>0.0287098033465141</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0380563915882321</v>
+        <v>0.03790880892091589</v>
       </c>
     </row>
     <row r="27">
@@ -4568,19 +4568,19 @@
         <v>89925</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>72675</v>
+        <v>70595</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>110659</v>
+        <v>110790</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02630312165967389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02125751859551941</v>
+        <v>0.02064914136231542</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03236772133151636</v>
+        <v>0.03240623941279735</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>67</v>
@@ -4589,19 +4589,19 @@
         <v>74178</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>58438</v>
+        <v>59049</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>94450</v>
+        <v>94045</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02087031938586456</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01644185500448631</v>
+        <v>0.01661374829237561</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02657392814347195</v>
+        <v>0.02645997708506356</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>149</v>
@@ -4610,19 +4610,19 @@
         <v>164103</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>139926</v>
+        <v>138954</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>193309</v>
+        <v>195149</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02353396275711366</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02006674699417717</v>
+        <v>0.01992730694156112</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02772234959223824</v>
+        <v>0.02798624964283567</v>
       </c>
     </row>
     <row r="28">
@@ -4639,19 +4639,19 @@
         <v>76151</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>59513</v>
+        <v>59013</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>99382</v>
+        <v>96072</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02227412992028463</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01740744785465733</v>
+        <v>0.01726137719795899</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0290691528479585</v>
+        <v>0.02810113077950657</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -4660,19 +4660,19 @@
         <v>66933</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>51658</v>
+        <v>49290</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>87375</v>
+        <v>84016</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01883188068826322</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01453415026992309</v>
+        <v>0.0138680844885837</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02458350518870422</v>
+        <v>0.02363819900333133</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>122</v>
@@ -4681,19 +4681,19 @@
         <v>143084</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>118548</v>
+        <v>118795</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>170273</v>
+        <v>170056</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02051957773427262</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01700087441446888</v>
+        <v>0.01703637494516584</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0244188375725943</v>
+        <v>0.02438766765880546</v>
       </c>
     </row>
     <row r="29">
@@ -4710,19 +4710,19 @@
         <v>3712</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11167</v>
+        <v>11220</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.001085704124442048</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0003543728446496547</v>
+        <v>0.0003536512920893052</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.003266237944185838</v>
+        <v>0.003281875869067732</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6513</v>
+        <v>5964</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0003363841372127717</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.001832355725074727</v>
+        <v>0.001678060743277769</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -4752,19 +4752,19 @@
         <v>4907</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11019</v>
+        <v>12245</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0007037675088752627</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0001764387772427064</v>
+        <v>0.0001753682763138203</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.001580241650673218</v>
+        <v>0.001756092168201871</v>
       </c>
     </row>
     <row r="30">
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4098</v>
+        <v>4138</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0002403856113218641</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.001198774881942707</v>
+        <v>0.001210441183617864</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -4802,19 +4802,19 @@
         <v>11382</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5403</v>
+        <v>5986</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>21570</v>
+        <v>21477</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003202345271334188</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001520263928543474</v>
+        <v>0.001684206954777813</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.006068714912710207</v>
+        <v>0.006042617824447876</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>11</v>
@@ -4823,19 +4823,19 @@
         <v>12204</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>6213</v>
+        <v>6303</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>21130</v>
+        <v>21377</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001750128934963256</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0008910227084314049</v>
+        <v>0.0009039345715681176</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.003030251083182221</v>
+        <v>0.00306562961490442</v>
       </c>
     </row>
     <row r="31">
@@ -4852,19 +4852,19 @@
         <v>3256098</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3227100</v>
+        <v>3225845</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3283904</v>
+        <v>3283128</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9524097458317907</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9439277985445366</v>
+        <v>0.943560701176462</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9605429900669398</v>
+        <v>0.9603159667837826</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3184</v>
@@ -4873,19 +4873,19 @@
         <v>3424368</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3397926</v>
+        <v>3397140</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3447254</v>
+        <v>3446569</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.9634625742412091</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9560231466793351</v>
+        <v>0.9558018553073142</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9699017491173902</v>
+        <v>0.9697091318056514</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6247</v>
@@ -4894,19 +4894,19 @@
         <v>6680467</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6638862</v>
+        <v>6636970</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6713681</v>
+        <v>6717243</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9580434936926255</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9520768965768602</v>
+        <v>0.9518055945577082</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9628066841972348</v>
+        <v>0.9633175199896683</v>
       </c>
     </row>
     <row r="32">
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4434</v>
+        <v>4191</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0008927039911448087</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.004475241709091099</v>
+        <v>0.004230705533392511</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0005071491475096553</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002533762932394213</v>
+        <v>0.002555144150381153</v>
       </c>
     </row>
     <row r="5">
@@ -5229,19 +5229,19 @@
         <v>5222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11022</v>
+        <v>11336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00693272875346684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002598699665868415</v>
+        <v>0.002623174440426553</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01463413054036394</v>
+        <v>0.01505138618263036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -5250,19 +5250,19 @@
         <v>10153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4047</v>
+        <v>4635</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19998</v>
+        <v>21402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01024818389756839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004084948152965797</v>
+        <v>0.004678750041388968</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0201851567453774</v>
+        <v>0.02160244833435294</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -5271,19 +5271,19 @@
         <v>15375</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8159</v>
+        <v>8336</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26222</v>
+        <v>27106</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008816253714278683</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00467878598913883</v>
+        <v>0.004780216424397712</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0150367417225985</v>
+        <v>0.01554319240626297</v>
       </c>
     </row>
     <row r="6">
@@ -5300,19 +5300,19 @@
         <v>8112</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3862</v>
+        <v>3887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15047</v>
+        <v>15585</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01077004032340807</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005128069321012496</v>
+        <v>0.005161146296536533</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01997815526537634</v>
+        <v>0.02069185521328454</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -5321,19 +5321,19 @@
         <v>4468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1161</v>
+        <v>1092</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10700</v>
+        <v>11290</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004509497835290052</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001171813762595445</v>
+        <v>0.001102472742538079</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01080063589234188</v>
+        <v>0.01139567937259018</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -5342,19 +5342,19 @@
         <v>12579</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6642</v>
+        <v>7096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21569</v>
+        <v>20920</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007213398012752157</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003808858416380611</v>
+        <v>0.004069057813714676</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01236814161265822</v>
+        <v>0.01199635581707548</v>
       </c>
     </row>
     <row r="7">
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7388</v>
+        <v>7442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002789993324339642</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009808667178401178</v>
+        <v>0.009880896378822144</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5392,19 +5392,19 @@
         <v>4559</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12123</v>
+        <v>10498</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004601770317851295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001286468662556468</v>
+        <v>0.001289328634231309</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01223684349670888</v>
+        <v>0.01059674769265944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -5413,19 +5413,19 @@
         <v>6660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2398</v>
+        <v>2429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14145</v>
+        <v>14064</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003819271973087156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001375237309837027</v>
+        <v>0.001393081418623335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.008110934920696151</v>
+        <v>0.00806455912146454</v>
       </c>
     </row>
     <row r="8">
@@ -5536,19 +5536,19 @@
         <v>744101</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>737692</v>
+        <v>735741</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>749170</v>
+        <v>748360</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9879465433131575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9794381783657294</v>
+        <v>0.9768480627234095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9946777289566912</v>
+        <v>0.9936012701346406</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>880</v>
@@ -5557,19 +5557,19 @@
         <v>980406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>971943</v>
+        <v>972216</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>985730</v>
+        <v>985920</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9895978005405198</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9810548486380776</v>
+        <v>0.9813304985645432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9949708813374756</v>
+        <v>0.9951630656358605</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1632</v>
@@ -5578,19 +5578,19 @@
         <v>1724507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1712718</v>
+        <v>1713650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1731823</v>
+        <v>1732167</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9888846299616803</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.982124581023172</v>
+        <v>0.9826586132403169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9930798077820502</v>
+        <v>0.9932769154779736</v>
       </c>
     </row>
     <row r="11">
@@ -5611,19 +5611,19 @@
         <v>10581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5270</v>
+        <v>4849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20433</v>
+        <v>20897</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005102761565396345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002541338844340762</v>
+        <v>0.002338244215030945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.009853821917400772</v>
+        <v>0.0100778103434517</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -5632,19 +5632,19 @@
         <v>6058</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2010</v>
+        <v>2056</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12522</v>
+        <v>12882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.003049470498447924</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001011637360039114</v>
+        <v>0.001035121047413431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.006303673485737431</v>
+        <v>0.006485051172557627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -5653,19 +5653,19 @@
         <v>16639</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9500</v>
+        <v>9049</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28729</v>
+        <v>27539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004098155938577956</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002339899711925172</v>
+        <v>0.002228879615679081</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007075928312796255</v>
+        <v>0.006782960498014256</v>
       </c>
     </row>
     <row r="12">
@@ -5682,19 +5682,19 @@
         <v>49425</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37442</v>
+        <v>36030</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64736</v>
+        <v>65860</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02383507282075823</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0180564717324953</v>
+        <v>0.01737563837831926</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03121901081308253</v>
+        <v>0.03176122782475128</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -5703,19 +5703,19 @@
         <v>67348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52616</v>
+        <v>52945</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84358</v>
+        <v>87449</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03390393858323915</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02648739964028729</v>
+        <v>0.0266530095184337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04246661921261339</v>
+        <v>0.04402280016276482</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>108</v>
@@ -5724,19 +5724,19 @@
         <v>116773</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>94765</v>
+        <v>93673</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140184</v>
+        <v>138328</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02876142708367358</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02334077330971461</v>
+        <v>0.02307198800776504</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03452759729946779</v>
+        <v>0.03407059188708265</v>
       </c>
     </row>
     <row r="13">
@@ -5753,19 +5753,19 @@
         <v>37915</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27340</v>
+        <v>26216</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50900</v>
+        <v>52305</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01828450954117624</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01318484791343296</v>
+        <v>0.01264281220348122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02454651294505355</v>
+        <v>0.02522402316922772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -5774,19 +5774,19 @@
         <v>16200</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9675</v>
+        <v>8925</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27440</v>
+        <v>25910</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008155164565576698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004870644459643453</v>
+        <v>0.004493143396085609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01381385101468804</v>
+        <v>0.01304332698307907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -5795,19 +5795,19 @@
         <v>54115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40091</v>
+        <v>40987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69574</v>
+        <v>69678</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01332856485205073</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009874492720948726</v>
+        <v>0.01009529612750376</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01713621846798132</v>
+        <v>0.01716196431510528</v>
       </c>
     </row>
     <row r="14">
@@ -5824,19 +5824,19 @@
         <v>32341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22117</v>
+        <v>21458</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>46259</v>
+        <v>45420</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01559646533909962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01066617916503993</v>
+        <v>0.01034794773617929</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02230849484144972</v>
+        <v>0.02190389852430965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -5845,19 +5845,19 @@
         <v>21177</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13241</v>
+        <v>12973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34442</v>
+        <v>33393</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01066076576255225</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006665825592074036</v>
+        <v>0.006530896618191524</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01733870680488148</v>
+        <v>0.01681047256479341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>48</v>
@@ -5866,19 +5866,19 @@
         <v>53518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>39602</v>
+        <v>40207</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>71524</v>
+        <v>69808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01318159506244966</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009753991017353738</v>
+        <v>0.009903137325493108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01761651584679657</v>
+        <v>0.01719380280004964</v>
       </c>
     </row>
     <row r="15">
@@ -5895,19 +5895,19 @@
         <v>4330</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12621</v>
+        <v>12269</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.002088039576693813</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0005072183772337927</v>
+        <v>0.0005104932073407203</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.006086298797967178</v>
+        <v>0.005916734334875593</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -5916,19 +5916,19 @@
         <v>3144</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7977</v>
+        <v>8293</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001582950476104077</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0</v>
+        <v>0.0004274812334063485</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.004015660143577827</v>
+        <v>0.004174909937518156</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -5937,19 +5937,19 @@
         <v>7474</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2931</v>
+        <v>2815</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>15792</v>
+        <v>15991</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001840916623370297</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0007218071453200045</v>
+        <v>0.0006932445351057589</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003889679854933363</v>
+        <v>0.003938555677417753</v>
       </c>
     </row>
     <row r="16">
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5972</v>
+        <v>6968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0009643245175844087</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00287978830045443</v>
+        <v>0.003360323473046718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9814</v>
+        <v>9751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001306515486657502</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.004940609499267287</v>
+        <v>0.004908713628974617</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -6008,19 +6008,19 @@
         <v>4595</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1050</v>
+        <v>1614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11662</v>
+        <v>11593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001131746944200314</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0002586728562744732</v>
+        <v>0.0003975542347777718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0028724327751968</v>
+        <v>0.002855327479395368</v>
       </c>
     </row>
     <row r="17">
@@ -6037,19 +6037,19 @@
         <v>1997843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1978069</v>
+        <v>1980019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2014870</v>
+        <v>2015468</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9634641258976022</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.953928109660937</v>
+        <v>0.9548685460326213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.971675464032053</v>
+        <v>0.9719638989166076</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1859</v>
@@ -6058,19 +6058,19 @@
         <v>1934512</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1916875</v>
+        <v>1918000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1947206</v>
+        <v>1947317</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9738574745899176</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9649787581026925</v>
+        <v>0.9655448684725064</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.98024781420929</v>
+        <v>0.9803034131044066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3740</v>
@@ -6079,19 +6079,19 @@
         <v>3932355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3906845</v>
+        <v>3908888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3954674</v>
+        <v>3954585</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9685492386445754</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9622658798357568</v>
+        <v>0.9627690344341355</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9740464260108656</v>
+        <v>0.9740243434346985</v>
       </c>
     </row>
     <row r="18">
@@ -6112,19 +6112,19 @@
         <v>8567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3636</v>
+        <v>3625</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17718</v>
+        <v>17064</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01569218590003807</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006659378038080374</v>
+        <v>0.00663970734278695</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0324551074005875</v>
+        <v>0.03125753379489111</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -6133,19 +6133,19 @@
         <v>5845</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2050</v>
+        <v>2058</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12135</v>
+        <v>12441</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01064330630599892</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003733558300201131</v>
+        <v>0.003748103385425115</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02209770263388726</v>
+        <v>0.02265468404615231</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -6154,19 +6154,19 @@
         <v>14411</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7914</v>
+        <v>8071</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24801</v>
+        <v>23898</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01316032842818215</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.007226655827916683</v>
+        <v>0.007370134089645205</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02264760142374841</v>
+        <v>0.02182340783076041</v>
       </c>
     </row>
     <row r="19">
@@ -6183,19 +6183,19 @@
         <v>58362</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44178</v>
+        <v>45007</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73254</v>
+        <v>75774</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1069043068677198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08092402131161801</v>
+        <v>0.08244119503825446</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1341836146611252</v>
+        <v>0.1387991041269037</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -6204,19 +6204,19 @@
         <v>78827</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63359</v>
+        <v>64130</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97012</v>
+        <v>97325</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1435466997601551</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.115378401612357</v>
+        <v>0.1167817618682099</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1766608158250084</v>
+        <v>0.1772317847566227</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>126</v>
@@ -6225,19 +6225,19 @@
         <v>137189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>116350</v>
+        <v>114996</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162867</v>
+        <v>160559</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1252793373083196</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1062496637208632</v>
+        <v>0.1050134159234972</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1487286387237621</v>
+        <v>0.146620369284924</v>
       </c>
     </row>
     <row r="20">
@@ -6254,19 +6254,19 @@
         <v>31215</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21461</v>
+        <v>22422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44345</v>
+        <v>44535</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05717898929024723</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03931167425800122</v>
+        <v>0.0410726023672949</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08122969644298154</v>
+        <v>0.08157699604992232</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -6275,19 +6275,19 @@
         <v>25276</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15256</v>
+        <v>16786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36814</v>
+        <v>38825</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04602886487544095</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02778167426721734</v>
+        <v>0.03056772227013435</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06704003218328332</v>
+        <v>0.07070163358977614</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>52</v>
@@ -6296,19 +6296,19 @@
         <v>56492</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43747</v>
+        <v>42352</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74613</v>
+        <v>75092</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05158754562716598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03994910723432614</v>
+        <v>0.03867527621117137</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06813580594762322</v>
+        <v>0.06857345382935705</v>
       </c>
     </row>
     <row r="21">
@@ -6325,19 +6325,19 @@
         <v>35800</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25840</v>
+        <v>24783</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50937</v>
+        <v>49030</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06557716890087446</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04733182171274262</v>
+        <v>0.04539609907430191</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09330348206802612</v>
+        <v>0.08981056977347164</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -6346,19 +6346,19 @@
         <v>32903</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22392</v>
+        <v>22775</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47140</v>
+        <v>44874</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05991805539031294</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04077636657771054</v>
+        <v>0.04147368697795476</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08584392893859392</v>
+        <v>0.08171709367423792</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -6367,19 +6367,19 @@
         <v>68703</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52276</v>
+        <v>54109</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>85645</v>
+        <v>86647</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0627392979318951</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04773801585103036</v>
+        <v>0.04941149636578869</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07821039126414853</v>
+        <v>0.07912515803165551</v>
       </c>
     </row>
     <row r="22">
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8581</v>
+        <v>7368</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004465150881268171</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01571742361882693</v>
+        <v>0.01349651803644351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7439</v>
+        <v>7386</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002226015363944678</v>
@@ -6442,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006792967626169306</v>
+        <v>0.00674460801730574</v>
       </c>
     </row>
     <row r="23">
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5943</v>
+        <v>7290</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.002153085681065973</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0108854481026688</v>
+        <v>0.01335400880479882</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5261</v>
+        <v>5181</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.001895160897979104</v>
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.009579934556964907</v>
+        <v>0.009434466056644863</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8643</v>
+        <v>7757</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.002023744353535348</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.007892773515487924</v>
+        <v>0.007083777989956734</v>
       </c>
     </row>
     <row r="24">
@@ -6530,19 +6530,19 @@
         <v>466698</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>448943</v>
+        <v>446909</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>483533</v>
+        <v>482449</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8548790559302312</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8223553006575468</v>
+        <v>0.8186294099638568</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8857161363909021</v>
+        <v>0.8837303591851715</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>466</v>
@@ -6551,19 +6551,19 @@
         <v>487047</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>469784</v>
+        <v>470732</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>500648</v>
+        <v>500113</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8869270500547229</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8554909490204975</v>
+        <v>0.8572168557124303</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9116938391949959</v>
+        <v>0.9107209342877299</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>895</v>
@@ -6572,19 +6572,19 @@
         <v>953745</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>927932</v>
+        <v>929236</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>975501</v>
+        <v>975740</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8709501370227346</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8473773337445188</v>
+        <v>0.8485680814656946</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8908173074221677</v>
+        <v>0.8910351137087189</v>
       </c>
     </row>
     <row r="25">
@@ -6605,19 +6605,19 @@
         <v>19148</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10238</v>
+        <v>11593</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31032</v>
+        <v>32275</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005677290493668521</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003035439444012791</v>
+        <v>0.003437253143237005</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009201056969098778</v>
+        <v>0.009569501148977</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -6626,19 +6626,19 @@
         <v>12787</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6938</v>
+        <v>6903</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21230</v>
+        <v>21585</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003626094615920931</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001967559304141676</v>
+        <v>0.001957448835206553</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.006020470531083576</v>
+        <v>0.006121092084850001</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -6647,19 +6647,19 @@
         <v>31935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20760</v>
+        <v>22353</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46584</v>
+        <v>47314</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004628859937282837</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003009083967389172</v>
+        <v>0.003240020114170952</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00675234406282049</v>
+        <v>0.00685803632988689</v>
       </c>
     </row>
     <row r="26">
@@ -6676,19 +6676,19 @@
         <v>113008</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92443</v>
+        <v>92263</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>136631</v>
+        <v>133722</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03350650800266602</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02740905070376188</v>
+        <v>0.02735591959113997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04051066061933171</v>
+        <v>0.03964839827423392</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>143</v>
@@ -6697,19 +6697,19 @@
         <v>156329</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>134765</v>
+        <v>131913</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>180038</v>
+        <v>183053</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04433222587925115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03821724201717196</v>
+        <v>0.03740834521034292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05105594935419131</v>
+        <v>0.05191074533236698</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>247</v>
@@ -6718,19 +6718,19 @@
         <v>269336</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>236496</v>
+        <v>236025</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>305104</v>
+        <v>305247</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03903987199766683</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03427976463224711</v>
+        <v>0.03421146627183632</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0442243316535005</v>
+        <v>0.04424510343668977</v>
       </c>
     </row>
     <row r="27">
@@ -6747,19 +6747,19 @@
         <v>77242</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>61465</v>
+        <v>61279</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>96099</v>
+        <v>96073</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02290206206664613</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0182243602156876</v>
+        <v>0.01816895613671867</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02849302360494706</v>
+        <v>0.02848545275142483</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>42</v>
@@ -6768,19 +6768,19 @@
         <v>45944</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>32629</v>
+        <v>33658</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>61134</v>
+        <v>63448</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01302888292553303</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009253046505252967</v>
+        <v>0.009544897025100611</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01733656009361638</v>
+        <v>0.01799267807390689</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>115</v>
@@ -6789,19 +6789,19 @@
         <v>123186</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>101294</v>
+        <v>99570</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>146402</v>
+        <v>146126</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01785557049921011</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01468241321851988</v>
+        <v>0.01443248067360613</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02122081779258033</v>
+        <v>0.02118068675671408</v>
       </c>
     </row>
     <row r="28">
@@ -6818,19 +6818,19 @@
         <v>70242</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52970</v>
+        <v>54039</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>89148</v>
+        <v>88038</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02082670064181627</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01570537804504471</v>
+        <v>0.01602255994156471</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02643206818391332</v>
+        <v>0.02610304419252752</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -6839,19 +6839,19 @@
         <v>58639</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43538</v>
+        <v>44813</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>76671</v>
+        <v>75755</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01662919508419162</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01234677445790818</v>
+        <v>0.01270835817390337</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02174261147650881</v>
+        <v>0.02148282416181987</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>118</v>
@@ -6860,19 +6860,19 @@
         <v>128882</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>107813</v>
+        <v>106500</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>153855</v>
+        <v>154914</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01868122388118388</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01562735038774104</v>
+        <v>0.01543704529086549</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02230100448603776</v>
+        <v>0.02245449026908882</v>
       </c>
     </row>
     <row r="29">
@@ -6889,19 +6889,19 @@
         <v>6767</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16746</v>
+        <v>16239</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.002006518187280013</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00072131424687199</v>
+        <v>0.0007224924612552414</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.004965045365288674</v>
+        <v>0.004814690413488672</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -6910,19 +6910,19 @@
         <v>3144</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8500</v>
+        <v>9808</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0008917122724666764</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0002405513345809594</v>
+        <v>0.000240706659312812</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.002410601196897665</v>
+        <v>0.00278137481271696</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -6931,19 +6931,19 @@
         <v>9912</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4566</v>
+        <v>4237</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19261</v>
+        <v>17879</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001436705914249683</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0006617963728420535</v>
+        <v>0.0006141428872763451</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.00279181481890219</v>
+        <v>0.00259156527836766</v>
       </c>
     </row>
     <row r="30">
@@ -6960,19 +6960,19 @@
         <v>3175</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8446</v>
+        <v>8459</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0009413943067148225</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0002815503576172249</v>
+        <v>0.0002814182883258578</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.002504308658638932</v>
+        <v>0.002508100069258806</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -6984,16 +6984,16 @@
         <v>977</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11740</v>
+        <v>10863</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001031118333225222</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.000277107854469103</v>
+        <v>0.000277190172688928</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.00332936656281519</v>
+        <v>0.00308062965704466</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -7002,19 +7002,19 @@
         <v>6811</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2658</v>
+        <v>2790</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14866</v>
+        <v>14844</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0009872550711868921</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0003852207573532052</v>
+        <v>0.000404335621259119</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.002154858714155025</v>
+        <v>0.002151550595074878</v>
       </c>
     </row>
     <row r="31">
@@ -7031,19 +7031,19 @@
         <v>3208641</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3179139</v>
+        <v>3181573</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3232258</v>
+        <v>3234597</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.9513553220592859</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9426079493990267</v>
+        <v>0.9433298144510941</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9583578348179208</v>
+        <v>0.9590511709557022</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3205</v>
@@ -7052,19 +7052,19 @@
         <v>3401967</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3379768</v>
+        <v>3376596</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3424094</v>
+        <v>3424593</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.964742279074334</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9584470631953412</v>
+        <v>0.9575474430290694</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9710170706911572</v>
+        <v>0.971158697611477</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6267</v>
@@ -7073,19 +7073,19 @@
         <v>6610608</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6573847</v>
+        <v>6572814</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6642185</v>
+        <v>6644884</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.9581978157205983</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9528694501607949</v>
+        <v>0.9527197356033097</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9627749319542553</v>
+        <v>0.9631661611487553</v>
       </c>
     </row>
     <row r="32">
@@ -7348,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4393</v>
+        <v>4996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001725394318664009</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007592890815504627</v>
+        <v>0.008634858190244669</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7369,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1996</v>
+        <v>2162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0005251263798537782</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00243036520265484</v>
+        <v>0.00263183276641432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5507</v>
+        <v>5183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00102117453493832</v>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.003934147782995885</v>
+        <v>0.003702579835796403</v>
       </c>
     </row>
     <row r="5">
@@ -7416,19 +7416,19 @@
         <v>10278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5627</v>
+        <v>5631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18024</v>
+        <v>18449</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01776508606189288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009726603583897455</v>
+        <v>0.009732948667780269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03115433872071618</v>
+        <v>0.03188992852617685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -7437,19 +7437,19 @@
         <v>14302</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9255</v>
+        <v>9191</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21264</v>
+        <v>21171</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0174139943699912</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01126832005751826</v>
+        <v>0.01119074629896172</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02589047037585171</v>
+        <v>0.02577727733209618</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -7458,19 +7458,19 @@
         <v>24580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16953</v>
+        <v>16933</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33953</v>
+        <v>34315</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.01755909396017602</v>
+        <v>0.01755909396017601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01211061709541002</v>
+        <v>0.01209612369050219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02425498420564955</v>
+        <v>0.02451348316236635</v>
       </c>
     </row>
     <row r="6">
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5375</v>
+        <v>4347</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002090839783200333</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009291503443462456</v>
+        <v>0.007513125521886212</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -7508,19 +7508,19 @@
         <v>2067</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>684</v>
+        <v>589</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5183</v>
+        <v>5158</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002516940081542552</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0008324508743070555</v>
+        <v>0.0007169316476641668</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.006310426774814073</v>
+        <v>0.006280735554846287</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -7529,19 +7529,19 @@
         <v>3277</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1154</v>
+        <v>1171</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7812</v>
+        <v>7475</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002340840845664313</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0008240669144391472</v>
+        <v>0.0008368440482008421</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005580536410409593</v>
+        <v>0.005340221161389624</v>
       </c>
     </row>
     <row r="7">
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2201</v>
+        <v>2741</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0008250418866658824</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.003805162178274266</v>
+        <v>0.004738095070378764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -7579,19 +7579,19 @@
         <v>4422</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9443</v>
+        <v>9420</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005384445091450585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002164089400204192</v>
+        <v>0.0021549644948878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01149780945770592</v>
+        <v>0.01146901264655432</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -7600,19 +7600,19 @@
         <v>4900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2219</v>
+        <v>2130</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9931</v>
+        <v>9922</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.003500129535823981</v>
+        <v>0.00350012953582398</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001585448773203906</v>
+        <v>0.001521410875281718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007094295064787983</v>
+        <v>0.007087862107259605</v>
       </c>
     </row>
     <row r="8">
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6017</v>
+        <v>6282</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00337381935736297</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01040007331787879</v>
+        <v>0.01085934793188686</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4772</v>
+        <v>4557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.001588200723734618</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.00581076609222653</v>
+        <v>0.005547919358669697</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -7671,19 +7671,19 @@
         <v>3256</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8543</v>
+        <v>8164</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.002326163307134063</v>
+        <v>0.002326163307134062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0006415414884930081</v>
+        <v>0.0006411169414998681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006102942098950077</v>
+        <v>0.005831848552233932</v>
       </c>
     </row>
     <row r="9">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4266</v>
+        <v>4451</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00147703452262511</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.005194188682943663</v>
+        <v>0.005419673754071697</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -7737,16 +7737,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3689</v>
+        <v>4210</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0008666039460401567</v>
+        <v>0.0008666039460401564</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002635197751062982</v>
+        <v>0.003007173246203753</v>
       </c>
     </row>
     <row r="10">
@@ -7763,19 +7763,19 @@
         <v>573278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>567367</v>
+        <v>566937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>576639</v>
+        <v>576595</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9909233856645678</v>
+        <v>0.9909233856645676</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9807060806428509</v>
+        <v>0.9799627194034487</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9967339531193046</v>
+        <v>0.9966570366794243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1412</v>
@@ -7784,19 +7784,19 @@
         <v>812983</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>807155</v>
+        <v>807302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>816730</v>
+        <v>816641</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9898556009460978</v>
+        <v>0.9898556009460976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.982759550190313</v>
+        <v>0.9829386098818526</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9944169480773719</v>
+        <v>0.9943086450213318</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2097</v>
@@ -7805,19 +7805,19 @@
         <v>1386262</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1378878</v>
+        <v>1378057</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1391184</v>
+        <v>1391431</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9902968962789961</v>
+        <v>0.9902968962789959</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9850219612518355</v>
+        <v>0.9844357755163119</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9938128257777805</v>
+        <v>0.9939893936787587</v>
       </c>
     </row>
     <row r="11">
@@ -7838,19 +7838,19 @@
         <v>29803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19621</v>
+        <v>18715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>45571</v>
+        <v>43713</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01336110138529576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008796405912685743</v>
+        <v>0.008390275424503914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02043027850345446</v>
+        <v>0.01959735534379635</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -7859,19 +7859,19 @@
         <v>11551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6947</v>
+        <v>7256</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18465</v>
+        <v>17959</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005322028313641244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003200992986683166</v>
+        <v>0.00334312489733673</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008507776458337543</v>
+        <v>0.008274710070523298</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -7880,19 +7880,19 @@
         <v>41353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29498</v>
+        <v>30365</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56673</v>
+        <v>57351</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009396585049377133</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006702686655015776</v>
+        <v>0.006899786505224529</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01287751594756478</v>
+        <v>0.01303171866514453</v>
       </c>
     </row>
     <row r="12">
@@ -7909,19 +7909,19 @@
         <v>106188</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>86695</v>
+        <v>87183</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>132254</v>
+        <v>130932</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04760594780340056</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03886701477258034</v>
+        <v>0.0390855086267142</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05929173425036542</v>
+        <v>0.05869922487817401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>208</v>
@@ -7930,19 +7930,19 @@
         <v>153097</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>131597</v>
+        <v>134192</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>175062</v>
+        <v>179772</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07054118482000792</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06063454251955912</v>
+        <v>0.06183041965461006</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08066150501816888</v>
+        <v>0.08283165856050519</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>302</v>
@@ -7951,19 +7951,19 @@
         <v>259286</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>231010</v>
+        <v>229220</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>296851</v>
+        <v>294147</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.05891659531338666</v>
+        <v>0.05891659531338665</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05249166511201849</v>
+        <v>0.0520848346757207</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06745253593029416</v>
+        <v>0.06683803391087621</v>
       </c>
     </row>
     <row r="13">
@@ -7980,19 +7980,19 @@
         <v>55884</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41846</v>
+        <v>41422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75326</v>
+        <v>76876</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02505372783170847</v>
+        <v>0.02505372783170846</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01876005576246584</v>
+        <v>0.01857016909416965</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03377002094593812</v>
+        <v>0.03446498473273551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -8001,19 +8001,19 @@
         <v>20338</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13771</v>
+        <v>14024</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29153</v>
+        <v>28323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009370984443829916</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006344918644783949</v>
+        <v>0.00646169508597256</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01343242845131239</v>
+        <v>0.01305019145432039</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -8022,19 +8022,19 @@
         <v>76222</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59527</v>
+        <v>60333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95785</v>
+        <v>96003</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01731969036257668</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01352612396926555</v>
+        <v>0.01370929106638507</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02176485534626975</v>
+        <v>0.02181436770374187</v>
       </c>
     </row>
     <row r="14">
@@ -8051,19 +8051,19 @@
         <v>55869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40051</v>
+        <v>39557</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78819</v>
+        <v>76640</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02504704490178714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01795575635067995</v>
+        <v>0.01773402805448092</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03533599442309623</v>
+        <v>0.03435882288189678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -8072,19 +8072,19 @@
         <v>33238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25023</v>
+        <v>23749</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45384</v>
+        <v>44892</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01531493204404102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01152982497186214</v>
+        <v>0.01094278007910201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02091120558777802</v>
+        <v>0.0206845051537161</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -8093,19 +8093,19 @@
         <v>89107</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>70834</v>
+        <v>68565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>112724</v>
+        <v>112327</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02024759600218938</v>
+        <v>0.02024759600218939</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01609532790619596</v>
+        <v>0.01557980251986649</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02561397358613275</v>
+        <v>0.02552370952397212</v>
       </c>
     </row>
     <row r="15">
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9955</v>
+        <v>11716</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.001329526380290735</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.004462910485033024</v>
+        <v>0.005252498586605557</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -8143,19 +8143,19 @@
         <v>5355</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11541</v>
+        <v>12687</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002467550155169934</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0009759595003415965</v>
+        <v>0.0009744062761809318</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.005317760473162156</v>
+        <v>0.005845666824291868</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -8164,19 +8164,19 @@
         <v>8321</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3919</v>
+        <v>4097</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16742</v>
+        <v>17854</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.001890749522058223</v>
+        <v>0.001890749522058224</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0008905688988945628</v>
+        <v>0.0009308809165974967</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003804250272372038</v>
+        <v>0.004056916961207171</v>
       </c>
     </row>
     <row r="16">
@@ -8193,19 +8193,19 @@
         <v>4230</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12021</v>
+        <v>12187</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001896388275309647</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0005450130012602345</v>
+        <v>0.0005471957839871964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005389296724858694</v>
+        <v>0.005463797502187815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -8214,19 +8214,19 @@
         <v>9243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4082</v>
+        <v>4444</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21005</v>
+        <v>20242</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004258719337920241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001880905029989926</v>
+        <v>0.002047787344461597</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009678113428634724</v>
+        <v>0.009326920003131726</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -8235,19 +8235,19 @@
         <v>13473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6876</v>
+        <v>6389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26283</v>
+        <v>24751</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003061385782496156</v>
+        <v>0.003061385782496157</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001562428776870118</v>
+        <v>0.001451822128439519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005972125859695136</v>
+        <v>0.005624060755789887</v>
       </c>
     </row>
     <row r="17">
@@ -8264,19 +8264,19 @@
         <v>2156682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2134673</v>
+        <v>2132013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2174700</v>
+        <v>2172942</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9668765904630482</v>
+        <v>0.966876590463048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9570093985593312</v>
+        <v>0.9558168651052307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9749542568096403</v>
+        <v>0.9741664160181389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2855</v>
@@ -8285,19 +8285,19 @@
         <v>2124845</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2112314</v>
+        <v>2109511</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2135806</v>
+        <v>2135700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9790440029987769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9732704922423643</v>
+        <v>0.9719789037853457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9840945907810519</v>
+        <v>0.9840454911519289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4787</v>
@@ -8306,19 +8306,19 @@
         <v>4281527</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4255748</v>
+        <v>4254012</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4302053</v>
+        <v>4302653</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9728770217732002</v>
+        <v>0.9728770217732005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9670193458033796</v>
+        <v>0.9666249610754305</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9775412540298474</v>
+        <v>0.9776773949291176</v>
       </c>
     </row>
     <row r="18">
@@ -8339,19 +8339,19 @@
         <v>20573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12522</v>
+        <v>11733</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34077</v>
+        <v>32189</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.02891105660777083</v>
+        <v>0.02891105660777082</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0175979572501105</v>
+        <v>0.01648911623253559</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04788912457665274</v>
+        <v>0.04523606618780176</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -8360,19 +8360,19 @@
         <v>12107</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7013</v>
+        <v>6687</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20732</v>
+        <v>20611</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01647430091617539</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009543518862955019</v>
+        <v>0.009099280013836053</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02821162078865242</v>
+        <v>0.02804646834151105</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -8381,19 +8381,19 @@
         <v>32679</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21957</v>
+        <v>21240</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46413</v>
+        <v>46678</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02259255353096171</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.015179917588136</v>
+        <v>0.01468380352457825</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03208711325200947</v>
+        <v>0.03227040441469105</v>
       </c>
     </row>
     <row r="19">
@@ -8410,19 +8410,19 @@
         <v>115680</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>96914</v>
+        <v>94771</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>139644</v>
+        <v>135411</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1625661781813262</v>
+        <v>0.1625661781813261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1361947975860956</v>
+        <v>0.1331825480359769</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1962424299388995</v>
+        <v>0.1902943489811553</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -8431,19 +8431,19 @@
         <v>146000</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>128498</v>
+        <v>128633</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>166376</v>
+        <v>165756</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.198672458759692</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1748570776558531</v>
+        <v>0.1750401879425799</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2263999494696498</v>
+        <v>0.2255554524888086</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>315</v>
@@ -8452,19 +8452,19 @@
         <v>261680</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>235657</v>
+        <v>233673</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>292374</v>
+        <v>290589</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1809100011673088</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1629191612950255</v>
+        <v>0.1615475663113026</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2021299560271411</v>
+        <v>0.2008961273858588</v>
       </c>
     </row>
     <row r="20">
@@ -8481,19 +8481,19 @@
         <v>35492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25423</v>
+        <v>24934</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49276</v>
+        <v>48984</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04987685414742119</v>
+        <v>0.04987685414742118</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03572754680606228</v>
+        <v>0.03504023866627204</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06924782532816648</v>
+        <v>0.06883832857821491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -8502,19 +8502,19 @@
         <v>41501</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32646</v>
+        <v>31884</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52284</v>
+        <v>51281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05647318759634007</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04442365052300914</v>
+        <v>0.04338647728358298</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07114692067643173</v>
+        <v>0.06978134825225689</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -8523,19 +8523,19 @@
         <v>76993</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62520</v>
+        <v>62868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>92088</v>
+        <v>92703</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.05322812631406985</v>
+        <v>0.05322812631406984</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04322256476798024</v>
+        <v>0.04346306658643393</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06366396370468824</v>
+        <v>0.06408935810036841</v>
       </c>
     </row>
     <row r="21">
@@ -8552,19 +8552,19 @@
         <v>46279</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33253</v>
+        <v>33840</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63002</v>
+        <v>62257</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06503562492120403</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04673087645025673</v>
+        <v>0.04755598109389803</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08853770158291537</v>
+        <v>0.08748994141098138</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>75</v>
@@ -8573,19 +8573,19 @@
         <v>56600</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43401</v>
+        <v>44701</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>70797</v>
+        <v>71057</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07701982302417722</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05905902596997386</v>
+        <v>0.06082744117621456</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09633814020187838</v>
+        <v>0.09669254579144877</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>125</v>
@@ -8594,19 +8594,19 @@
         <v>102879</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>84012</v>
+        <v>86858</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>122118</v>
+        <v>125447</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07112420577496302</v>
+        <v>0.07112420577496301</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05808129091328143</v>
+        <v>0.0600485359078411</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0844251495048236</v>
+        <v>0.0867267804101529</v>
       </c>
     </row>
     <row r="22">
@@ -8670,19 +8670,19 @@
         <v>4788</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1370</v>
+        <v>989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11251</v>
+        <v>11996</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.006728084509243091</v>
+        <v>0.006728084509243092</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001925713229488045</v>
+        <v>0.001390180482157081</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01581044117417379</v>
+        <v>0.01685755958828859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -8691,19 +8691,19 @@
         <v>2021</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5978</v>
+        <v>5702</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002750575461050945</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.000558237124139611</v>
+        <v>0.0005541508724261454</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.008135060943838096</v>
+        <v>0.0077590731479921</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -8712,19 +8712,19 @@
         <v>6809</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3018</v>
+        <v>3000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14171</v>
+        <v>14386</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.004707308047740199</v>
+        <v>0.004707308047740198</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002086608873569758</v>
+        <v>0.002073799623608263</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.009797058041721105</v>
+        <v>0.009945341099369447</v>
       </c>
     </row>
     <row r="24">
@@ -8741,19 +8741,19 @@
         <v>656153</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>638208</v>
+        <v>638334</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>669356</v>
+        <v>670006</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.922098485381479</v>
+        <v>0.9220984853814789</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8968799975205516</v>
+        <v>0.8970566655154928</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9406528868677863</v>
+        <v>0.9415656014154822</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>916</v>
@@ -8762,19 +8762,19 @@
         <v>675110</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>658815</v>
+        <v>660947</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>686768</v>
+        <v>686444</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9186710930642944</v>
+        <v>0.9186710930642945</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8964974398845637</v>
+        <v>0.8993975026316373</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9345340215155127</v>
+        <v>0.9340934622707245</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1534</v>
@@ -8783,19 +8783,19 @@
         <v>1331264</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1309048</v>
+        <v>1310321</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1349270</v>
+        <v>1349219</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9203571961386426</v>
+        <v>0.9203571961386425</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9049988511855995</v>
+        <v>0.9058788320935649</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9328056627219372</v>
+        <v>0.9327702942243372</v>
       </c>
     </row>
     <row r="25">
@@ -8816,19 +8816,19 @@
         <v>51374</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35176</v>
+        <v>37962</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70049</v>
+        <v>70945</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01459198416358169</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009991286035419461</v>
+        <v>0.01078250353383321</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01989637692210114</v>
+        <v>0.02015081713344668</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -8837,19 +8837,19 @@
         <v>24088</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16950</v>
+        <v>16644</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33845</v>
+        <v>34645</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.006464055035239186</v>
+        <v>0.006464055035239187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004548554322709098</v>
+        <v>0.004466401939592686</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009082290187150562</v>
+        <v>0.009296941423487292</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -8858,19 +8858,19 @@
         <v>75462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60219</v>
+        <v>60712</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100103</v>
+        <v>97084</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01041259449077166</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008309343769711668</v>
+        <v>0.008377245357400434</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01381261861453312</v>
+        <v>0.01339609311670349</v>
       </c>
     </row>
     <row r="26">
@@ -8887,19 +8887,19 @@
         <v>232146</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>202525</v>
+        <v>202484</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>264900</v>
+        <v>267768</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06593773106359836</v>
+        <v>0.06593773106359838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05752438666219262</v>
+        <v>0.05751284544165242</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07524116920686309</v>
+        <v>0.07605558334145864</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>432</v>
@@ -8908,19 +8908,19 @@
         <v>313400</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>284920</v>
+        <v>283525</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>343508</v>
+        <v>345281</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.08409984493210342</v>
+        <v>0.08409984493210343</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07645740070632859</v>
+        <v>0.07608299152366389</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09217944409364158</v>
+        <v>0.09265501663787849</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>652</v>
@@ -8929,19 +8929,19 @@
         <v>545545</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>502597</v>
+        <v>503085</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>591598</v>
+        <v>591146</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07527670904185607</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06935045985522084</v>
+        <v>0.0694178984313701</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08163123980278535</v>
+        <v>0.08156889889437154</v>
       </c>
     </row>
     <row r="27">
@@ -8958,19 +8958,19 @@
         <v>92585</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>75228</v>
+        <v>73906</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>114802</v>
+        <v>115686</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02629755156173316</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02136741447354506</v>
+        <v>0.02099181734910682</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03260778533861543</v>
+        <v>0.03285903856852009</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>106</v>
@@ -8979,19 +8979,19 @@
         <v>63906</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>53109</v>
+        <v>52583</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>78197</v>
+        <v>77983</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0171490242174333</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0142516311003974</v>
+        <v>0.01411040117400924</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02098392886107546</v>
+        <v>0.0209265704965338</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>196</v>
@@ -9000,19 +9000,19 @@
         <v>156491</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>132711</v>
+        <v>134924</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>181674</v>
+        <v>183179</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.02159336921707433</v>
+        <v>0.02159336921707432</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01831202475914206</v>
+        <v>0.01861737675900782</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02506822736883563</v>
+        <v>0.02527585237367467</v>
       </c>
     </row>
     <row r="28">
@@ -9029,19 +9029,19 @@
         <v>102625</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>81485</v>
+        <v>80417</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>131843</v>
+        <v>130140</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02914915092421891</v>
+        <v>0.02914915092421892</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02314475571731432</v>
+        <v>0.02284119140613534</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03744805098405928</v>
+        <v>0.03696438378062814</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>130</v>
@@ -9050,19 +9050,19 @@
         <v>94261</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>79471</v>
+        <v>78346</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>114345</v>
+        <v>113366</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.02529461252149539</v>
+        <v>0.0252946125214954</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02132569713121909</v>
+        <v>0.02102396439632605</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03068402714627881</v>
+        <v>0.03042151578632945</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>226</v>
@@ -9071,19 +9071,19 @@
         <v>196886</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>172273</v>
+        <v>171435</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>230029</v>
+        <v>231202</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02716714323943026</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02377096420421922</v>
+        <v>0.02365534612658112</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03174040878485233</v>
+        <v>0.031902215811744</v>
       </c>
     </row>
     <row r="29">
@@ -9100,19 +9100,19 @@
         <v>4917</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1081</v>
+        <v>1154</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12657</v>
+        <v>12131</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.001396732059493743</v>
+        <v>0.001396732059493744</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.000307157604278303</v>
+        <v>0.0003277872131551736</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.003594967226142251</v>
+        <v>0.003445543604185175</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -9121,19 +9121,19 @@
         <v>6660</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3249</v>
+        <v>3272</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12101</v>
+        <v>12321</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.001787137705895739</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0008718777945289228</v>
+        <v>0.0008779386148117552</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.00324735622052758</v>
+        <v>0.003306193198326578</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -9142,19 +9142,19 @@
         <v>11577</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6213</v>
+        <v>5968</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20218</v>
+        <v>20290</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001597479051872104</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0008573429986538438</v>
+        <v>0.0008235175237498717</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.002789828657459506</v>
+        <v>0.002799753509054337</v>
       </c>
     </row>
     <row r="30">
@@ -9171,19 +9171,19 @@
         <v>9018</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3663</v>
+        <v>4018</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18254</v>
+        <v>19010</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.002561332027449812</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0010403844853563</v>
+        <v>0.001141298004383074</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.005184752132395229</v>
+        <v>0.005399442330528839</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>14</v>
@@ -9192,19 +9192,19 @@
         <v>12477</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6430</v>
+        <v>6713</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23512</v>
+        <v>23282</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003348233975656972</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.00172542193267392</v>
+        <v>0.001801499496591999</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.006309498827672725</v>
+        <v>0.006247563158180281</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>21</v>
@@ -9213,19 +9213,19 @@
         <v>21495</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>13350</v>
+        <v>12873</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35618</v>
+        <v>33820</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.002965957833595561</v>
+        <v>0.00296595783359556</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.00184215596342397</v>
+        <v>0.001776301857653687</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004914755298245493</v>
+        <v>0.004666629584104352</v>
       </c>
     </row>
     <row r="31">
@@ -9242,19 +9242,19 @@
         <v>3386114</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3357439</v>
+        <v>3357962</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3410929</v>
+        <v>3408211</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.9617776531302165</v>
+        <v>0.9617776531302167</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9536327876584644</v>
+        <v>0.9537814656211614</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9688259502552191</v>
+        <v>0.9680539236660738</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5183</v>
@@ -9263,19 +9263,19 @@
         <v>3612939</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3592523</v>
+        <v>3590644</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3630137</v>
+        <v>3629593</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.9695211865958677</v>
+        <v>0.9695211865958676</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.9640424738367591</v>
+        <v>0.9635382646845951</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.9741361330923164</v>
+        <v>0.9739902026213443</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8418</v>
@@ -9284,19 +9284,19 @@
         <v>6999052</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6965328</v>
+        <v>6967190</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7027581</v>
+        <v>7028116</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.9657593861505684</v>
+        <v>0.9657593861505683</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.9611060116521232</v>
+        <v>0.9613629002072273</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.9696958399663141</v>
+        <v>0.9697697358505658</v>
       </c>
     </row>
     <row r="32">
